--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/197.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/197.xlsx
@@ -479,13 +479,13 @@
         <v>-15.27326579997617</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.75710969261621</v>
+        <v>-14.77046384151477</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01935313743916321</v>
+        <v>-0.008172310812329147</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.25311194466232</v>
+        <v>-11.27093056882991</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.85018244415815</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.90541929920728</v>
+        <v>-14.91746421782167</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05639892680306383</v>
+        <v>0.06909846055953811</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.95409684006014</v>
+        <v>-10.97072406466913</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.35585302425919</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.27208233259266</v>
+        <v>-15.28527937385712</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08939152996421351</v>
+        <v>0.1010829564018749</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.59564268055652</v>
+        <v>-10.61373624308379</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.82462215424777</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.78761794159131</v>
+        <v>-15.80209802853425</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2247004798334524</v>
+        <v>0.2381069979433799</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.41270393294909</v>
+        <v>-10.43156994134401</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.25610891756972</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.2769689449065</v>
+        <v>-16.29245713916826</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2132185302412587</v>
+        <v>0.2259835255119416</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.25763869809168</v>
+        <v>-10.27730333695995</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.66063696959045</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.85862068325586</v>
+        <v>-16.87654404584619</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3655343815018998</v>
+        <v>0.3821746984137336</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.1092636299864</v>
+        <v>-10.12875806891773</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.04062042313324</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.45387532425778</v>
+        <v>-17.47385417839426</v>
       </c>
       <c r="F8" t="n">
-        <v>0.507664421151678</v>
+        <v>0.522576554088404</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.903478813920151</v>
+        <v>-9.92289469903443</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.42122878984596</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.19273943513059</v>
+        <v>-18.21538911904678</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7940716381172774</v>
+        <v>0.8109476164802624</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.941734522823674</v>
+        <v>-9.961490807811838</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.81733997206853</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.68236537680546</v>
+        <v>-18.70654686015413</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8266976567988588</v>
+        <v>0.8414919590100093</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.591947467801278</v>
+        <v>-9.610878937710414</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.24356070982977</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.29487567295278</v>
+        <v>-19.32094244791065</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9521742872339614</v>
+        <v>0.9669554971422701</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.54803588407013</v>
+        <v>-9.567726707544086</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.708345762782935</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.84464765388254</v>
+        <v>-19.87135595167966</v>
       </c>
       <c r="F12" t="n">
-        <v>1.119140425374494</v>
+        <v>1.135846203800536</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.057702958041805</v>
+        <v>-9.077655627572595</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.218411922795775</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.66315224294157</v>
+        <v>-20.69115667872002</v>
       </c>
       <c r="F13" t="n">
-        <v>1.309306124150565</v>
+        <v>1.32724257904373</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.576940505390782</v>
+        <v>-8.599393804764341</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.795261897827331</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.49583579597819</v>
+        <v>-21.52402352399642</v>
       </c>
       <c r="F14" t="n">
-        <v>1.639127417339328</v>
+        <v>1.659106271475802</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.134263561706341</v>
+        <v>-8.159767367642022</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-8.445277708328273</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.32244452049625</v>
+        <v>-22.35133923286794</v>
       </c>
       <c r="F15" t="n">
-        <v>1.755701281842057</v>
+        <v>1.776491858754718</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.705595382062545</v>
+        <v>-7.733783110080782</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-8.170817714012482</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.1763506964393</v>
+        <v>-23.20445987064049</v>
       </c>
       <c r="F16" t="n">
-        <v>2.037683300447153</v>
+        <v>2.059311784741685</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.118039015131562</v>
+        <v>-7.144197436209331</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-7.963595348315558</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.78651747037795</v>
+        <v>-23.81394584483136</v>
       </c>
       <c r="F17" t="n">
-        <v>2.229668829318224</v>
+        <v>2.251637713486641</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.035505138017322</v>
+        <v>-7.062553835688328</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-7.821226844720188</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.60233813735443</v>
+        <v>-24.63057823458403</v>
       </c>
       <c r="F18" t="n">
-        <v>2.656111317478926</v>
+        <v>2.680436816158853</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.634108225192842</v>
+        <v>-6.661091461349639</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-7.745360043003219</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.45831289714647</v>
+        <v>-25.48783604005457</v>
       </c>
       <c r="F19" t="n">
-        <v>2.922853895576253</v>
+        <v>2.947519794130065</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.325470278001991</v>
+        <v>-6.351183560783142</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-7.729335480786132</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.21163091035655</v>
+        <v>-26.24119333017317</v>
       </c>
       <c r="F20" t="n">
-        <v>3.144428028869624</v>
+        <v>3.169041558212069</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.226492468518543</v>
+        <v>-6.255321719376023</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-7.764623939234435</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.79617604763394</v>
+        <v>-26.82585629817613</v>
       </c>
       <c r="F21" t="n">
-        <v>3.457910128111914</v>
+        <v>3.481581011649754</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.887846963214456</v>
+        <v>-5.914764737857045</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-7.83652632943136</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.38362767614219</v>
+        <v>-27.41356977274121</v>
       </c>
       <c r="F22" t="n">
-        <v>3.655001655091258</v>
+        <v>3.676577770174422</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.757329796185289</v>
+        <v>-5.787834861806511</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-7.941926312130143</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.82498229723961</v>
+        <v>-27.8535627943431</v>
       </c>
       <c r="F23" t="n">
-        <v>3.836120572603696</v>
+        <v>3.857356287812976</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.55345645633393</v>
+        <v>-5.582783214699397</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-8.077266798467173</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.0559436116705</v>
+        <v>-28.08487760095072</v>
       </c>
       <c r="F24" t="n">
-        <v>3.973039875722467</v>
+        <v>3.994485067777215</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.392892454283002</v>
+        <v>-5.422651258642246</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-8.234218006650716</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.31922982181761</v>
+        <v>-28.34722116529322</v>
       </c>
       <c r="F25" t="n">
-        <v>4.289192804744468</v>
+        <v>4.310847473644683</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.095173487662152</v>
+        <v>-5.123950369308266</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-8.402300584207504</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.27826400622585</v>
+        <v>-28.30605896515884</v>
       </c>
       <c r="F26" t="n">
-        <v>4.458607203516403</v>
+        <v>4.482304271659928</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.103762038326323</v>
+        <v>-5.1336255811083</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-8.567324415670956</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.166167709295</v>
+        <v>-28.19302002242338</v>
       </c>
       <c r="F27" t="n">
-        <v>4.405242977133528</v>
+        <v>4.427499891964462</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.905505296394066</v>
+        <v>-4.932187409585503</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.726597155945965</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.11868192688805</v>
+        <v>-28.14642451660967</v>
       </c>
       <c r="F28" t="n">
-        <v>4.375837664951011</v>
+        <v>4.395973626721586</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.812327377069502</v>
+        <v>-4.836927814109105</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-8.875128940291367</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.89798497788508</v>
+        <v>-27.92399938363159</v>
       </c>
       <c r="F29" t="n">
-        <v>4.361697977881947</v>
+        <v>4.38128406293317</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.687898130861737</v>
+        <v>-4.711346445251268</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.00611985890761</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.74912549457465</v>
+        <v>-27.77438054675634</v>
       </c>
       <c r="F30" t="n">
-        <v>4.257169031993606</v>
+        <v>4.274974563858354</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.640883671357098</v>
+        <v>-4.664174878112529</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.110671735414018</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.30028207625176</v>
+        <v>-27.32451592881179</v>
       </c>
       <c r="F31" t="n">
-        <v>4.107890594992246</v>
+        <v>4.124701111841023</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.72197739515875</v>
+        <v>-4.742846525888461</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.17992811884956</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.91946626349447</v>
+        <v>-26.9426003626158</v>
       </c>
       <c r="F32" t="n">
-        <v>4.018025028286639</v>
+        <v>4.033892899330811</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.801081088928458</v>
+        <v>-4.821701465904177</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.216886107657249</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.49971394208589</v>
+        <v>-26.52282185660154</v>
       </c>
       <c r="F33" t="n">
-        <v>3.883462339679378</v>
+        <v>3.899015995455348</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.715889474337347</v>
+        <v>-4.731181284056484</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.220622871341858</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.01021892343944</v>
+        <v>-26.03258057669311</v>
       </c>
       <c r="F34" t="n">
-        <v>3.748978204889168</v>
+        <v>3.763301184198016</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.526260559977787</v>
+        <v>-4.539091016762678</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.190193364969195</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.5980732299819</v>
+        <v>-25.61913874525424</v>
       </c>
       <c r="F35" t="n">
-        <v>3.511169616072055</v>
+        <v>3.525859179860472</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.523210053415665</v>
+        <v>-4.533749357203254</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.121539579162532</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.90961448504974</v>
+        <v>-24.93082401565333</v>
       </c>
       <c r="F36" t="n">
-        <v>3.284437115459043</v>
+        <v>3.296717695524582</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.788093524509466</v>
+        <v>-4.797467613344142</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.011775780734345</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.42612883340763</v>
+        <v>-24.44613387214979</v>
       </c>
       <c r="F37" t="n">
-        <v>3.156394393666962</v>
+        <v>3.169303404268904</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.773901468229035</v>
+        <v>-4.781206973214719</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.868022889154734</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.00705731174682</v>
+        <v>-24.02604115086733</v>
       </c>
       <c r="F38" t="n">
-        <v>3.082030113525958</v>
+        <v>3.094546355042648</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.921490998163813</v>
+        <v>-4.929726056651259</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.691499325278791</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.50521625152062</v>
+        <v>-23.52362402931609</v>
       </c>
       <c r="F39" t="n">
-        <v>3.054929046643585</v>
+        <v>3.067759503428477</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.786666463499718</v>
+        <v>-4.79335663025184</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.483257767376866</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.11984431737442</v>
+        <v>-23.137662941542</v>
       </c>
       <c r="F40" t="n">
-        <v>3.154770948114588</v>
+        <v>3.170219865467825</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.766360301792201</v>
+        <v>-4.771387746083424</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.240932741168711</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.58800879133782</v>
+        <v>-22.60546083102584</v>
       </c>
       <c r="F41" t="n">
-        <v>3.165349528810703</v>
+        <v>3.179148816005882</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.694077697803031</v>
+        <v>-4.699013495974362</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.967012456917419</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.90637113618619</v>
+        <v>-21.92236993025878</v>
       </c>
       <c r="F42" t="n">
-        <v>3.257624079239188</v>
+        <v>3.270664012869547</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.72303787168893</v>
+        <v>-4.728392623551195</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.670840172844424</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.2422509822368</v>
+        <v>-21.25797483794971</v>
       </c>
       <c r="F43" t="n">
-        <v>3.376580742859111</v>
+        <v>3.389803968729255</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.771073530815222</v>
+        <v>-4.777645866841769</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.356943017379494</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.94970347523843</v>
+        <v>-20.96455014666094</v>
       </c>
       <c r="F44" t="n">
-        <v>3.279435855773504</v>
+        <v>3.291585512810626</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.819528143632451</v>
+        <v>-4.825301849185652</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.029812403484939</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.45900396473053</v>
+        <v>-20.47265923659445</v>
       </c>
       <c r="F45" t="n">
-        <v>3.410882576304433</v>
+        <v>3.424262909808677</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.764213164126158</v>
+        <v>-4.769109685388964</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.691322281585936</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.13346385457102</v>
+        <v>-20.14772137236566</v>
       </c>
       <c r="F46" t="n">
-        <v>3.437800350947022</v>
+        <v>3.450866469183065</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.727868931437526</v>
+        <v>-4.729597115412634</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.350357736029296</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.58438576569187</v>
+        <v>-19.59712457635687</v>
       </c>
       <c r="F47" t="n">
-        <v>3.443299118140547</v>
+        <v>3.455736805840187</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.994258017358127</v>
+        <v>-4.99496500171158</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.018863679630295</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.10765574231609</v>
+        <v>-19.11992323007879</v>
       </c>
       <c r="F48" t="n">
-        <v>3.369537083930263</v>
+        <v>3.381084495036665</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.108566913469237</v>
+        <v>-5.109012051765855</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.703865317327294</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.72846337511118</v>
+        <v>-18.74278635442003</v>
       </c>
       <c r="F49" t="n">
-        <v>3.387683015668895</v>
+        <v>3.398994765324146</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.40023723617721</v>
+        <v>-5.401546466461383</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.411067212649129</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.21139596668005</v>
+        <v>-18.22505123854397</v>
       </c>
       <c r="F50" t="n">
-        <v>3.53730185254414</v>
+        <v>3.550813109076802</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.299806181078329</v>
+        <v>-5.296794951424733</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.142131130709402</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.54893853519156</v>
+        <v>-17.56320914528904</v>
       </c>
       <c r="F51" t="n">
-        <v>3.558092429456801</v>
+        <v>3.572598701005434</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.512294256199544</v>
+        <v>-5.509191380426055</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.904953202865263</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.1551744349238</v>
+        <v>-17.16905227593603</v>
       </c>
       <c r="F52" t="n">
-        <v>3.382079510052636</v>
+        <v>3.395276551317096</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.817763866102696</v>
+        <v>-5.818313742822049</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.704598569506969</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.76833616285932</v>
+        <v>-16.78303881895058</v>
       </c>
       <c r="F53" t="n">
-        <v>3.413474852267095</v>
+        <v>3.425833986149685</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.845205332858955</v>
+        <v>-5.845035132922011</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.541608161161206</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.57898218685944</v>
+        <v>-16.59563559607411</v>
       </c>
       <c r="F54" t="n">
-        <v>3.146339505084517</v>
+        <v>3.158148762247754</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.016609761662832</v>
+        <v>-6.015012500716141</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.413442346218298</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.29326886194445</v>
+        <v>-16.31110057841488</v>
       </c>
       <c r="F55" t="n">
-        <v>3.000334143793587</v>
+        <v>3.012509985436393</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.152311480617323</v>
+        <v>-6.148933666484157</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.314426547966904</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.97144696579198</v>
+        <v>-15.99120325078015</v>
       </c>
       <c r="F56" t="n">
-        <v>2.946760440565245</v>
+        <v>2.958962466813733</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.473465669324863</v>
+        <v>-6.472915792605511</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.245225589506236</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.42417561470499</v>
+        <v>-15.44376169975621</v>
       </c>
       <c r="F57" t="n">
-        <v>2.991143347198696</v>
+        <v>3.005335403479127</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.730035528114169</v>
+        <v>-6.729249989943665</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.202484876330922</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.22683533397165</v>
+        <v>-15.24761281858147</v>
       </c>
       <c r="F58" t="n">
-        <v>2.834873620479854</v>
+        <v>2.84956318426827</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.707752428677551</v>
+        <v>-6.70743821340935</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.180378070341946</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.88541426046512</v>
+        <v>-14.90697728324544</v>
       </c>
       <c r="F59" t="n">
-        <v>2.968258001831359</v>
+        <v>2.984832857228984</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.815122404282547</v>
+        <v>-6.814127389266575</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.170532181783874</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.83546712512394</v>
+        <v>-14.85845720891401</v>
       </c>
       <c r="F60" t="n">
-        <v>2.78713908431892</v>
+        <v>2.803687755110862</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823881154883662</v>
+        <v>-6.823933524095028</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.163858034542645</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.48971249937679</v>
+        <v>-14.51230981408161</v>
       </c>
       <c r="F61" t="n">
-        <v>2.67389066473799</v>
+        <v>2.690648812375399</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.238933339572061</v>
+        <v>-7.240923369604004</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.157400107062722</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.29262097239745</v>
+        <v>-14.31757490161378</v>
       </c>
       <c r="F62" t="n">
-        <v>2.630974096022812</v>
+        <v>2.648543966436408</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.175226193944222</v>
+        <v>-7.174820332556129</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.145786813834788</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.97451729025203</v>
+        <v>-13.99969378861667</v>
       </c>
       <c r="F63" t="n">
-        <v>2.558154707617131</v>
+        <v>2.575619839607994</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.384480470263529</v>
+        <v>-7.386090823513062</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.125088265978241</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.7928354037174</v>
+        <v>-13.8194127784861</v>
       </c>
       <c r="F64" t="n">
-        <v>2.472452493215192</v>
+        <v>2.490598424953825</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.384231716509537</v>
+        <v>-7.381665625152559</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.091399115832457</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.60545836544661</v>
+        <v>-13.63259870923751</v>
       </c>
       <c r="F65" t="n">
-        <v>2.213146343131966</v>
+        <v>2.22712892256693</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.742973906675673</v>
+        <v>-7.743261937338191</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.044752636150011</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.39202764452079</v>
+        <v>-13.41966549581968</v>
       </c>
       <c r="F66" t="n">
-        <v>2.146899290752832</v>
+        <v>2.160960424004846</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.779134847124521</v>
+        <v>-7.777485216966463</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.989920341658585</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.22339878391936</v>
+        <v>-13.25132466588077</v>
       </c>
       <c r="F67" t="n">
-        <v>2.444958657247568</v>
+        <v>2.464649480721524</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.86879093698466</v>
+        <v>-7.869995428846099</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.929395702618108</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.17771973930458</v>
+        <v>-13.20666682088764</v>
       </c>
       <c r="F68" t="n">
-        <v>2.138912986019379</v>
+        <v>2.154780857063551</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.757309978287363</v>
+        <v>-7.755673440432147</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-3.865867114484456</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.03829980634304</v>
+        <v>-13.06745636477156</v>
       </c>
       <c r="F69" t="n">
-        <v>2.215188742375275</v>
+        <v>2.235350888751533</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.829605674579375</v>
+        <v>-7.827969136724159</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-3.799333345925018</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.02353168873757</v>
+        <v>-13.05463900028951</v>
       </c>
       <c r="F70" t="n">
-        <v>2.20885206779988</v>
+        <v>2.227783537709016</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.735223263393372</v>
+        <v>-7.732775002761969</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-3.733803472390731</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.71368924968528</v>
+        <v>-12.74384082312978</v>
       </c>
       <c r="F71" t="n">
-        <v>2.166040237507436</v>
+        <v>2.185390661107507</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.428915746108348</v>
+        <v>-7.422775456075579</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-3.673882389049093</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.64458807528665</v>
+        <v>-12.67442543346295</v>
       </c>
       <c r="F72" t="n">
-        <v>2.170386882050888</v>
+        <v>2.188689921423622</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.50015096587018</v>
+        <v>-7.495568659875575</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.62119217565802</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.2993964185617</v>
+        <v>-12.32200682556937</v>
       </c>
       <c r="F73" t="n">
-        <v>2.146794552330098</v>
+        <v>2.165149960914198</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.218758100892961</v>
+        <v>-7.210431396285624</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.575861353193864</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.50189506661468</v>
+        <v>-12.52467567355929</v>
       </c>
       <c r="F74" t="n">
-        <v>2.168265928990529</v>
+        <v>2.186045276249593</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.174479932682243</v>
+        <v>-7.167737396718755</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.534921902114675</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.63510924802925</v>
+        <v>-12.65799459339658</v>
       </c>
       <c r="F75" t="n">
-        <v>2.100264508030604</v>
+        <v>2.118043855289668</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.108403080240052</v>
+        <v>-7.103113789891995</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.499338542790798</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.88568283211704</v>
+        <v>-12.90659123975528</v>
       </c>
       <c r="F76" t="n">
-        <v>2.07596519395636</v>
+        <v>2.092618603171036</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.746217614426542</v>
+        <v>-6.737157740860068</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.468914628039367</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.45748915872942</v>
+        <v>-13.47748110516874</v>
       </c>
       <c r="F77" t="n">
-        <v>2.070833011242403</v>
+        <v>2.087957743359381</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.700944431199853</v>
+        <v>-6.694738679652875</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.441971344500237</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.94585823933149</v>
+        <v>-13.9649075399662</v>
       </c>
       <c r="F78" t="n">
-        <v>2.123647360905927</v>
+        <v>2.141321969742257</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.732156481174528</v>
+        <v>-6.729760589754493</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.415935281828397</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.4336774432142</v>
+        <v>-14.45255654391197</v>
       </c>
       <c r="F79" t="n">
-        <v>2.167166175551824</v>
+        <v>2.184474199908586</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.643626329358777</v>
+        <v>-6.643181191062158</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.388241889018978</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.98107971732961</v>
+        <v>-14.99971006427339</v>
       </c>
       <c r="F80" t="n">
-        <v>2.046559881773844</v>
+        <v>2.061458922407728</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.28328687824595</v>
+        <v>-6.280720786888972</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.362627198775155</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.75191523174192</v>
+        <v>-15.77024445572034</v>
       </c>
       <c r="F81" t="n">
-        <v>2.148941689996141</v>
+        <v>2.164731007223263</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.230930759181888</v>
+        <v>-6.229817913440341</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.342921319664308</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.47843330103498</v>
+        <v>-16.496134094477</v>
       </c>
       <c r="F82" t="n">
-        <v>2.11411616443715</v>
+        <v>2.128334405323264</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.128692966290849</v>
+        <v>-6.127174259161208</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.333440256147582</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.35581397597326</v>
+        <v>-17.3737111539579</v>
       </c>
       <c r="F83" t="n">
-        <v>2.097672232067942</v>
+        <v>2.112545088096143</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.829834969322768</v>
+        <v>-5.827439077902732</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.337718352076856</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.40784597082015</v>
+        <v>-18.42532419511386</v>
       </c>
       <c r="F84" t="n">
-        <v>2.102621122542114</v>
+        <v>2.115687240778157</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.726405776873132</v>
+        <v>-5.725921361667988</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.359799657037512</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.20575636750915</v>
+        <v>-19.22290728423181</v>
       </c>
       <c r="F85" t="n">
-        <v>2.132628680655351</v>
+        <v>2.146558890878947</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.5961504559008</v>
+        <v>-5.597420409276447</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.408518249119934</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.36043201663518</v>
+        <v>-20.37910164048748</v>
       </c>
       <c r="F86" t="n">
-        <v>2.119510193207941</v>
+        <v>2.133257111191754</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.253681998166929</v>
+        <v>-5.253930751920922</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.489789033951761</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.42707502145344</v>
+        <v>-21.44591484524269</v>
       </c>
       <c r="F87" t="n">
-        <v>1.921921158720611</v>
+        <v>1.930640632413201</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.883523319922808</v>
+        <v>-4.881546382193707</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.607818429319149</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.76692820197285</v>
+        <v>-22.78527051825411</v>
       </c>
       <c r="F88" t="n">
-        <v>2.020506199118809</v>
+        <v>2.03029924164442</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.662080109657853</v>
+        <v>-4.66213247886922</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.761673208553117</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.1385825860948</v>
+        <v>-24.15475158010434</v>
       </c>
       <c r="F89" t="n">
-        <v>1.894662984204138</v>
+        <v>1.90628894912759</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.272610284722186</v>
+        <v>-4.271536715889164</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.952016695289082</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.60557511951021</v>
+        <v>-25.6212596983146</v>
       </c>
       <c r="F90" t="n">
-        <v>1.6733506969676</v>
+        <v>1.683327031732995</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.167544554417334</v>
+        <v>-4.168461015616255</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.181341898132386</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.24779503415928</v>
+        <v>-27.26320467460399</v>
       </c>
       <c r="F91" t="n">
-        <v>1.464161882162501</v>
+        <v>1.473143201911925</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.059493779064569</v>
+        <v>-4.058852256225324</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.447526558263171</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.82989509415914</v>
+        <v>-28.8426208125213</v>
       </c>
       <c r="F92" t="n">
-        <v>1.337271283020492</v>
+        <v>1.345283772359628</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.787082233836775</v>
+        <v>-3.78583846506681</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.746949834489842</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.6740245032333</v>
+        <v>-30.68563737585392</v>
       </c>
       <c r="F93" t="n">
-        <v>1.196738504317404</v>
+        <v>1.204358224571289</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.772248654717099</v>
+        <v>-3.769721840268646</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.069155688733894</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.74457219765228</v>
+        <v>-32.7545878093262</v>
       </c>
       <c r="F94" t="n">
-        <v>1.080570501202769</v>
+        <v>1.087627252434459</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.761526058689725</v>
+        <v>-3.757899490802567</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.41121618743541</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.76855057086324</v>
+        <v>-34.77702129080184</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6771311891349802</v>
+        <v>0.684358140303613</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.744781003355158</v>
+        <v>-3.740696204868539</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.773063181515536</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.73370522740633</v>
+        <v>-36.74097145548348</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4598251465680109</v>
+        <v>0.4684922510492335</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.962047769013602</v>
+        <v>-3.958879431725904</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.146337470104608</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.81709647091304</v>
+        <v>-38.82321057634012</v>
       </c>
       <c r="F97" t="n">
-        <v>0.07178238264209195</v>
+        <v>0.07906170302209165</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.948745989326408</v>
+        <v>-3.943325775949933</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.534048595385913</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.02587269873496</v>
+        <v>-41.02891011299424</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1317636496382232</v>
+        <v>-0.1231358220655258</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.148194130817263</v>
+        <v>-4.142603717503846</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.91600019207735</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.3997297730882</v>
+        <v>-43.4016412493031</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.05301344804524093</v>
+        <v>-0.04449035889527726</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.478185623942968</v>
+        <v>-4.472843964383545</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.311833741888332</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79586994687806</v>
+        <v>-45.79577830075817</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3358202817293657</v>
+        <v>-0.3304262529585746</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.654512758615335</v>
+        <v>-4.647626207320587</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.691102131616618</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19401324300271</v>
+        <v>-48.19381685846009</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2616131092224624</v>
+        <v>-0.2539410197572109</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.92260384390536</v>
+        <v>-4.913687985670144</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.103568422796057</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.40153260975183</v>
+        <v>-50.39942474899431</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4108522693152978</v>
+        <v>-0.4037431488722406</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.285404647952431</v>
+        <v>-5.277483804733187</v>
       </c>
     </row>
   </sheetData>
